--- a/info/account_info.xlsx
+++ b/info/account_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -46,9 +46,6 @@
     <t>is_boundary_4</t>
   </si>
   <si>
-    <t>ch13</t>
-  </si>
-  <si>
     <t>ch8</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>test</t>
   </si>
   <si>
-    <t>广发-系数五号</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -112,25 +106,22 @@
     <t>功能测试</t>
   </si>
   <si>
+    <t>1111</t>
+  </si>
+  <si>
     <t>正常</t>
   </si>
   <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>886711312</t>
-  </si>
-  <si>
     <t>atp</t>
   </si>
   <si>
     <t>81590209</t>
   </si>
   <si>
+    <t>1.0</t>
+  </si>
+  <si>
     <t>1.2</t>
-  </si>
-  <si>
-    <t>1.0</t>
   </si>
   <si>
     <t>0.5</t>
@@ -497,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,31 +531,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -572,31 +563,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -604,31 +595,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -636,31 +627,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -668,31 +659,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -700,31 +691,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
         <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -732,31 +723,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -764,31 +755,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -796,31 +787,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -828,31 +819,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -860,31 +851,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -892,31 +883,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -924,31 +915,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -956,63 +947,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/info/account_info.xlsx
+++ b/info/account_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1213,6 +1213,110 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>lqq</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>lq的镜像账户 用来测试</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>lqqq</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>测试账户#2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/info/account_info.xlsx
+++ b/info/account_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,22 +540,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jxh</t>
+          <t>co5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>松哥</t>
+          <t>系数套利5号</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>atp</t>
+          <t>正常</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -592,12 +592,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>co5</t>
+          <t>lq</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>系数套利5号</t>
+          <t>醴泉</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -644,12 +644,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lq</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>醴泉</t>
+          <t>功能测试</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -696,12 +696,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ch2</t>
+          <t>lqq</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>lq的镜像账户 用来测试</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -741,44 +741,44 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ch3</t>
+          <t>lqqq</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>国君-亨贞六号</t>
+          <t>测试账户#2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>81590209</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -793,29 +793,29 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ch5</t>
+          <t>co2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>系数套利2号</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>东正135</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>正常</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -840,480 +840,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ch6</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ch7</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ch9</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ch10</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ch11</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ch12</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>功能测试</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>lqq</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>lq的镜像账户 用来测试</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
           <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>lqqq</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>测试账户#2</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>

--- a/info/account_info.xlsx
+++ b/info/account_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ch8</t>
+          <t>zhongtai</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>松哥账户</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>正常</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,17 +540,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>co5</t>
+          <t>co2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>系数套利5号</t>
+          <t>系数套利2号</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>东正135</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -580,24 +580,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lq</t>
+          <t>ch8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>醴泉</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -644,12 +644,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>co5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>功能测试</t>
+          <t>系数套利5号</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>正常</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -696,12 +696,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lqq</t>
+          <t>lq</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>lq的镜像账户 用来测试</t>
+          <t>醴泉</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -741,19 +741,19 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lqqq</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>测试账户#2</t>
+          <t>功能测试</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -800,32 +800,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>co2</t>
+          <t>lqq</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>系数套利2号</t>
+          <t>lq的镜像账户 用来测试</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东正135</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -840,12 +840,64 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0</t>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>lqqq</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>测试账户#2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/info/account_info.xlsx
+++ b/info/account_info.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>zhongtai</t>
+          <t>lq</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>松哥账户</t>
+          <t>醴泉</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,17 +540,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>co2</t>
+          <t>zhongtai</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>系数套利2号</t>
+          <t>松哥账户</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东正135</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -580,34 +580,34 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ch8</t>
+          <t>co2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>系数套利2号</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>东正135</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>正常</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -644,12 +644,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>co5</t>
+          <t>ch8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>系数套利5号</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -696,12 +696,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lq</t>
+          <t>co5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>醴泉</t>
+          <t>系数套利5号</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>正常</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">

--- a/info/account_info.xlsx
+++ b/info/account_info.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lq</t>
+          <t>zhongtai</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>醴泉</t>
+          <t>松哥账户</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>正常</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,17 +540,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>zhongtai</t>
+          <t>co2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>松哥账户</t>
+          <t>系数套利2号</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>东正135</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -592,22 +592,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>co2</t>
+          <t>ch8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>系数套利2号</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东正135</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -644,12 +644,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ch8</t>
+          <t>co5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>系数套利5号</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>正常</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -696,12 +696,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>co5</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>系数套利5号</t>
+          <t>功能测试</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,12 +748,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lqq</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>功能测试</t>
+          <t>lq的镜像账户 用来测试</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -793,19 +793,19 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>lqq</t>
+          <t>lqqq</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>lq的镜像账户 用来测试</t>
+          <t>测试账户#2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -820,12 +820,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -845,19 +845,19 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>lqqq</t>
+          <t>lq</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>测试账户#2</t>
+          <t>醴泉</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">

--- a/info/account_info.xlsx
+++ b/info/account_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,32 +540,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>co2</t>
+          <t>co1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>系数套利2号</t>
+          <t>系数一号 linux测试账户</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东正135</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -592,22 +592,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ch8</t>
+          <t>co2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>系数套利2号</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>东正135</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>正常</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -644,12 +644,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>co5</t>
+          <t>ch8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>系数套利5号</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -696,12 +696,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>co5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>功能测试</t>
+          <t>系数套利5号</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>正常</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,12 +748,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lqq</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>lq的镜像账户 用来测试</t>
+          <t>功能测试</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -793,19 +793,19 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>lqqq</t>
+          <t>lqq</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>测试账户#2</t>
+          <t>lq的镜像账户 用来测试</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -820,12 +820,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -845,57 +845,109 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>lqqq</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>测试账户#2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>lq</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>醴泉</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>1</t>
         </is>

--- a/info/account_info.xlsx
+++ b/info/account_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,12 +800,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>lqq</t>
+          <t>lq</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>lq的镜像账户 用来测试</t>
+          <t>醴泉</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -820,12 +820,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -844,110 +844,6 @@
         </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>lqqq</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>测试账户#2</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>lq</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>醴泉</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
         <is>
           <t>1</t>
         </is>

--- a/info/account_info.xlsx
+++ b/info/account_info.xlsx
@@ -644,7 +644,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ch8</t>
+          <t>cf1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">

--- a/info/account_info.xlsx
+++ b/info/account_info.xlsx
@@ -560,12 +560,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">

--- a/info/account_info.xlsx
+++ b/info/account_info.xlsx
@@ -560,12 +560,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">

--- a/info/account_info.xlsx
+++ b/info/account_info.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>zhongtai</t>
+          <t>changjiang</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/info/account_info.xlsx
+++ b/info/account_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,12 +748,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lq</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>功能测试</t>
+          <t>醴泉</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -792,58 +792,6 @@
         </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>lq</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>醴泉</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
         <is>
           <t>1</t>
         </is>

--- a/info/account_info.xlsx
+++ b/info/account_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>changjiang</t>
+          <t>cy</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>松哥账户</t>
+          <t>创元-系数1号</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -508,12 +508,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -540,12 +540,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>co1</t>
+          <t>changjiang</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>系数一号 linux测试账户</t>
+          <t>松哥账户</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -560,12 +560,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -592,32 +592,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>co2</t>
+          <t>co1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>系数套利2号</t>
+          <t>系数一号 linux测试账户</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东正135</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -644,22 +644,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cf1</t>
+          <t>co2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>系数套利2号</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>东正135</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>正常</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -696,12 +696,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>co5</t>
+          <t>cf1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>系数套利5号</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,50 +748,102 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>co5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>系数套利5号</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>lq</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>醴泉</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
